--- a/Paolo/Scripts/Factores/Info_2022.xlsx
+++ b/Paolo/Scripts/Factores/Info_2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Nuevos" sheetId="3" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Base!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidado!$A$1:$T$159</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Graduación!$A$1:$H$336</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Graduación!$A$1:$G$336</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nuevos!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="310">
   <si>
     <t>Correlativo</t>
   </si>
@@ -2038,7 +2038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:B159"/>
     </sheetView>
@@ -10467,11 +10467,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H341"/>
+  <dimension ref="A1:G341"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D276" sqref="D276:F276"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10480,10 +10480,10 @@
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10503,13 +10503,10 @@
         <v>162</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10520,12 +10517,11 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10545,9 +10541,8 @@
         <v>0.38</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10567,9 +10562,8 @@
         <v>0.1</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -10589,9 +10583,8 @@
         <v>0.18</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -10611,9 +10604,8 @@
         <v>0.1</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -10633,9 +10625,8 @@
         <v>0.08</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -10655,9 +10646,8 @@
         <v>0.06</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -10673,9 +10663,8 @@
         <v>1</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -10691,9 +10680,8 @@
         <v>1</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -10709,9 +10697,8 @@
         <v>1</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -10731,9 +10718,8 @@
         <v>0.36</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -10753,9 +10739,8 @@
         <v>0.2</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -10775,9 +10760,8 @@
         <v>0.06</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -10797,9 +10781,8 @@
         <v>0.1</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -10819,9 +10802,8 @@
         <v>0.08</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -10841,9 +10823,8 @@
         <v>0.06</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -10863,9 +10844,8 @@
         <v>0.26</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -10885,9 +10865,8 @@
         <v>0.1</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -10907,9 +10886,8 @@
         <v>0.06</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -10929,9 +10907,8 @@
         <v>0.1</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -10951,9 +10928,8 @@
         <v>0.04</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -10973,9 +10949,8 @@
         <v>0.06</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -10995,9 +10970,8 @@
         <v>0.26</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -11017,9 +10991,8 @@
         <v>0.1</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -11039,9 +11012,8 @@
         <v>0.06</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -11061,9 +11033,8 @@
         <v>0.1</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -11083,9 +11054,8 @@
         <v>0.04</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -11105,9 +11075,8 @@
         <v>0.06</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -11127,9 +11096,8 @@
         <v>0.26</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -11149,9 +11117,8 @@
         <v>0.1</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -11171,9 +11138,8 @@
         <v>0.06</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -11193,9 +11159,8 @@
         <v>0.1</v>
       </c>
       <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -11215,9 +11180,8 @@
         <v>0.04</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -11237,9 +11201,8 @@
         <v>0.06</v>
       </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -11255,9 +11218,8 @@
         <v>1</v>
       </c>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -11273,9 +11235,8 @@
         <v>1</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -11291,9 +11252,8 @@
         <v>1</v>
       </c>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -11309,9 +11269,8 @@
         <v>1</v>
       </c>
       <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -11327,9 +11286,8 @@
         <v>1</v>
       </c>
       <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>4</v>
       </c>
@@ -11349,9 +11307,8 @@
         <v>0.26</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -11371,9 +11328,8 @@
         <v>0.1</v>
       </c>
       <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -11393,9 +11349,8 @@
         <v>0.06</v>
       </c>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -11415,9 +11370,8 @@
         <v>0.1</v>
       </c>
       <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>4</v>
       </c>
@@ -11437,9 +11391,8 @@
         <v>0.04</v>
       </c>
       <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -11459,9 +11412,8 @@
         <v>0.06</v>
       </c>
       <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>4</v>
       </c>
@@ -11477,9 +11429,8 @@
         <v>1</v>
       </c>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>4</v>
       </c>
@@ -11495,9 +11446,8 @@
         <v>1</v>
       </c>
       <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>5</v>
       </c>
@@ -11508,12 +11458,11 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>6</v>
       </c>
@@ -11533,9 +11482,8 @@
         <v>0.48</v>
       </c>
       <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>6</v>
       </c>
@@ -11555,9 +11503,8 @@
         <v>0.2</v>
       </c>
       <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>6</v>
       </c>
@@ -11577,9 +11524,8 @@
         <v>0.06</v>
       </c>
       <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>6</v>
       </c>
@@ -11599,9 +11545,8 @@
         <v>0.1</v>
       </c>
       <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>6</v>
       </c>
@@ -11621,9 +11566,8 @@
         <v>0.12</v>
       </c>
       <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>6</v>
       </c>
@@ -11643,9 +11587,8 @@
         <v>0.04</v>
       </c>
       <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>6</v>
       </c>
@@ -11665,9 +11608,8 @@
         <v>0.06</v>
       </c>
       <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -11687,9 +11629,8 @@
         <v>-0.1</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -11700,12 +11641,11 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -11716,12 +11656,11 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -11732,12 +11671,11 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>10</v>
       </c>
@@ -11748,12 +11686,11 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>11</v>
       </c>
@@ -11773,9 +11710,8 @@
         <v>-0.2</v>
       </c>
       <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -11786,12 +11722,11 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -11805,9 +11740,8 @@
       <c r="E64" s="4"/>
       <c r="F64" s="8"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -11818,12 +11752,11 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>15</v>
       </c>
@@ -11834,12 +11767,11 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -11850,12 +11782,11 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -11866,12 +11797,11 @@
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>18</v>
       </c>
@@ -11891,9 +11821,8 @@
         <v>0.04</v>
       </c>
       <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>19</v>
       </c>
@@ -11904,12 +11833,11 @@
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>20</v>
       </c>
@@ -11925,9 +11853,8 @@
         <v>1</v>
       </c>
       <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>20</v>
       </c>
@@ -11943,9 +11870,8 @@
         <v>1</v>
       </c>
       <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>20</v>
       </c>
@@ -11961,9 +11887,8 @@
         <v>1</v>
       </c>
       <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>21</v>
       </c>
@@ -11974,12 +11899,11 @@
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>22</v>
       </c>
@@ -11995,9 +11919,8 @@
         <v>1</v>
       </c>
       <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>23</v>
       </c>
@@ -12008,12 +11931,11 @@
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4" t="s">
+      <c r="G76" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>24</v>
       </c>
@@ -12029,9 +11951,8 @@
         <v>1</v>
       </c>
       <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>25</v>
       </c>
@@ -12051,9 +11972,8 @@
         <v>0.12</v>
       </c>
       <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>25</v>
       </c>
@@ -12073,9 +11993,8 @@
         <v>0.12</v>
       </c>
       <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>25</v>
       </c>
@@ -12095,9 +12014,8 @@
         <v>0.12</v>
       </c>
       <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>25</v>
       </c>
@@ -12117,9 +12035,8 @@
         <v>0.12</v>
       </c>
       <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>25</v>
       </c>
@@ -12139,9 +12056,8 @@
         <v>0.12</v>
       </c>
       <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>25</v>
       </c>
@@ -12161,9 +12077,8 @@
         <v>0.12</v>
       </c>
       <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>25</v>
       </c>
@@ -12183,9 +12098,8 @@
         <v>0.12</v>
       </c>
       <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>25</v>
       </c>
@@ -12205,9 +12119,8 @@
         <v>0.12</v>
       </c>
       <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>25</v>
       </c>
@@ -12227,9 +12140,8 @@
         <v>0.12</v>
       </c>
       <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>25</v>
       </c>
@@ -12249,9 +12161,8 @@
         <v>0.12</v>
       </c>
       <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>26</v>
       </c>
@@ -12271,9 +12182,8 @@
         <v>0.52</v>
       </c>
       <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>26</v>
       </c>
@@ -12293,9 +12203,8 @@
         <v>0.3</v>
       </c>
       <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>26</v>
       </c>
@@ -12315,9 +12224,8 @@
         <v>0.1</v>
       </c>
       <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>26</v>
       </c>
@@ -12337,9 +12245,8 @@
         <v>0.12</v>
       </c>
       <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>26</v>
       </c>
@@ -12359,9 +12266,8 @@
         <v>0.12</v>
       </c>
       <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>26</v>
       </c>
@@ -12381,9 +12287,8 @@
         <v>0.06</v>
       </c>
       <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>26</v>
       </c>
@@ -12403,9 +12308,8 @@
         <v>0.3</v>
       </c>
       <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>27</v>
       </c>
@@ -12425,9 +12329,8 @@
         <v>0.36</v>
       </c>
       <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>27</v>
       </c>
@@ -12447,9 +12350,8 @@
         <v>0.2</v>
       </c>
       <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>27</v>
       </c>
@@ -12469,9 +12371,8 @@
         <v>0.06</v>
       </c>
       <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>27</v>
       </c>
@@ -12491,9 +12392,8 @@
         <v>0.1</v>
       </c>
       <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>27</v>
       </c>
@@ -12513,9 +12413,8 @@
         <v>0.04</v>
       </c>
       <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>28</v>
       </c>
@@ -12526,12 +12425,11 @@
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="8"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4" t="s">
+      <c r="G100" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>29</v>
       </c>
@@ -12542,12 +12440,11 @@
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="8"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4" t="s">
+      <c r="G101" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>30</v>
       </c>
@@ -12567,9 +12464,8 @@
         <v>0.8</v>
       </c>
       <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>30</v>
       </c>
@@ -12589,9 +12485,8 @@
         <v>0.1</v>
       </c>
       <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>30</v>
       </c>
@@ -12611,9 +12506,8 @@
         <v>0.1</v>
       </c>
       <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>30</v>
       </c>
@@ -12633,9 +12527,8 @@
         <v>0.6</v>
       </c>
       <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>30</v>
       </c>
@@ -12655,9 +12548,8 @@
         <v>0.04</v>
       </c>
       <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>30</v>
       </c>
@@ -12677,9 +12569,8 @@
         <v>0.06</v>
       </c>
       <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>30</v>
       </c>
@@ -12695,9 +12586,8 @@
         <v>1</v>
       </c>
       <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>30</v>
       </c>
@@ -12713,9 +12603,8 @@
         <v>1</v>
       </c>
       <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>30</v>
       </c>
@@ -12731,9 +12620,8 @@
         <v>1</v>
       </c>
       <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>31</v>
       </c>
@@ -12753,9 +12641,8 @@
         <v>-0.2</v>
       </c>
       <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>31</v>
       </c>
@@ -12775,9 +12662,8 @@
         <v>0.2</v>
       </c>
       <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>31</v>
       </c>
@@ -12797,9 +12683,8 @@
         <v>0.1</v>
       </c>
       <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>31</v>
       </c>
@@ -12819,9 +12704,8 @@
         <v>0.1</v>
       </c>
       <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>31</v>
       </c>
@@ -12841,9 +12725,8 @@
         <v>0.04</v>
       </c>
       <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>31</v>
       </c>
@@ -12863,9 +12746,8 @@
         <v>0.06</v>
       </c>
       <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>31</v>
       </c>
@@ -12885,9 +12767,8 @@
         <v>-0.2</v>
       </c>
       <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>31</v>
       </c>
@@ -12907,9 +12788,8 @@
         <v>-0.2</v>
       </c>
       <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>31</v>
       </c>
@@ -12929,9 +12809,8 @@
         <v>-0.2</v>
       </c>
       <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>31</v>
       </c>
@@ -12947,9 +12826,8 @@
         <v>1</v>
       </c>
       <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>31</v>
       </c>
@@ -12969,9 +12847,8 @@
         <v>0.8</v>
       </c>
       <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>31</v>
       </c>
@@ -12991,9 +12868,8 @@
         <v>0.1</v>
       </c>
       <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>31</v>
       </c>
@@ -13013,9 +12889,8 @@
         <v>0.1</v>
       </c>
       <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>31</v>
       </c>
@@ -13035,9 +12910,8 @@
         <v>0.6</v>
       </c>
       <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>31</v>
       </c>
@@ -13057,9 +12931,8 @@
         <v>0.04</v>
       </c>
       <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>31</v>
       </c>
@@ -13079,9 +12952,8 @@
         <v>0.06</v>
       </c>
       <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>31</v>
       </c>
@@ -13101,9 +12973,8 @@
         <v>-0.2</v>
       </c>
       <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>31</v>
       </c>
@@ -13119,9 +12990,8 @@
         <v>1</v>
       </c>
       <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>32</v>
       </c>
@@ -13132,12 +13002,11 @@
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="8"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4" t="s">
+      <c r="G129" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>33</v>
       </c>
@@ -13157,9 +13026,8 @@
         <v>0.46</v>
       </c>
       <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>33</v>
       </c>
@@ -13179,9 +13047,8 @@
         <v>0.3</v>
       </c>
       <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>33</v>
       </c>
@@ -13201,9 +13068,8 @@
         <v>0.06</v>
       </c>
       <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>33</v>
       </c>
@@ -13223,9 +13089,8 @@
         <v>0.1</v>
       </c>
       <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>33</v>
       </c>
@@ -13245,9 +13110,8 @@
         <v>0.04</v>
       </c>
       <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>33</v>
       </c>
@@ -13267,9 +13131,8 @@
         <v>0.06</v>
       </c>
       <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>33</v>
       </c>
@@ -13289,9 +13152,8 @@
         <v>-0.1</v>
       </c>
       <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>34</v>
       </c>
@@ -13307,9 +13169,8 @@
         <v>1</v>
       </c>
       <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>34</v>
       </c>
@@ -13325,9 +13186,8 @@
         <v>1</v>
       </c>
       <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>35</v>
       </c>
@@ -13338,12 +13198,11 @@
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="8"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4" t="s">
+      <c r="G139" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>36</v>
       </c>
@@ -13359,9 +13218,8 @@
         <v>1</v>
       </c>
       <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>36</v>
       </c>
@@ -13377,9 +13235,8 @@
         <v>1</v>
       </c>
       <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>37</v>
       </c>
@@ -13390,12 +13247,11 @@
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="8"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4" t="s">
+      <c r="G142" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>38</v>
       </c>
@@ -13411,9 +13267,8 @@
         <v>1</v>
       </c>
       <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>38</v>
       </c>
@@ -13433,9 +13288,8 @@
         <v>0.26</v>
       </c>
       <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>38</v>
       </c>
@@ -13455,9 +13309,8 @@
         <v>0.1</v>
       </c>
       <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>38</v>
       </c>
@@ -13477,9 +13330,8 @@
         <v>0.06</v>
       </c>
       <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>38</v>
       </c>
@@ -13499,9 +13351,8 @@
         <v>0.1</v>
       </c>
       <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>38</v>
       </c>
@@ -13521,9 +13372,8 @@
         <v>0.08</v>
       </c>
       <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>38</v>
       </c>
@@ -13543,9 +13393,8 @@
         <v>0.06</v>
       </c>
       <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>38</v>
       </c>
@@ -13561,9 +13410,8 @@
         <v>1</v>
       </c>
       <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>39</v>
       </c>
@@ -13574,12 +13422,11 @@
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="8"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4" t="s">
+      <c r="G151" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>40</v>
       </c>
@@ -13599,9 +13446,8 @@
         <v>0.2</v>
       </c>
       <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>40</v>
       </c>
@@ -13621,9 +13467,8 @@
         <v>0.2</v>
       </c>
       <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>40</v>
       </c>
@@ -13643,9 +13488,8 @@
         <v>0.2</v>
       </c>
       <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>41</v>
       </c>
@@ -13665,9 +13509,8 @@
         <v>0.4</v>
       </c>
       <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>41</v>
       </c>
@@ -13687,9 +13530,8 @@
         <v>0.3</v>
       </c>
       <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>41</v>
       </c>
@@ -13709,9 +13551,8 @@
         <v>0.1</v>
       </c>
       <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>41</v>
       </c>
@@ -13731,9 +13572,8 @@
         <v>0.08</v>
       </c>
       <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>41</v>
       </c>
@@ -13753,9 +13593,8 @@
         <v>0.06</v>
       </c>
       <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>41</v>
       </c>
@@ -13775,9 +13614,8 @@
         <v>-0.1</v>
       </c>
       <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>41</v>
       </c>
@@ -13797,9 +13635,8 @@
         <v>0.4</v>
       </c>
       <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>41</v>
       </c>
@@ -13819,9 +13656,8 @@
         <v>0.3</v>
       </c>
       <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>41</v>
       </c>
@@ -13841,9 +13677,8 @@
         <v>0.1</v>
       </c>
       <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>41</v>
       </c>
@@ -13863,9 +13698,8 @@
         <v>0.08</v>
       </c>
       <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>41</v>
       </c>
@@ -13885,9 +13719,8 @@
         <v>0.06</v>
       </c>
       <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>41</v>
       </c>
@@ -13907,9 +13740,8 @@
         <v>-0.1</v>
       </c>
       <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>41</v>
       </c>
@@ -13929,9 +13761,8 @@
         <v>0.4</v>
       </c>
       <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>41</v>
       </c>
@@ -13951,9 +13782,8 @@
         <v>0.3</v>
       </c>
       <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>41</v>
       </c>
@@ -13973,9 +13803,8 @@
         <v>0.1</v>
       </c>
       <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>41</v>
       </c>
@@ -13995,9 +13824,8 @@
         <v>0.08</v>
       </c>
       <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>41</v>
       </c>
@@ -14017,9 +13845,8 @@
         <v>0.06</v>
       </c>
       <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>41</v>
       </c>
@@ -14039,9 +13866,8 @@
         <v>-0.1</v>
       </c>
       <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>41</v>
       </c>
@@ -14061,9 +13887,8 @@
         <v>0.4</v>
       </c>
       <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>41</v>
       </c>
@@ -14083,9 +13908,8 @@
         <v>0.3</v>
       </c>
       <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>41</v>
       </c>
@@ -14105,9 +13929,8 @@
         <v>0.1</v>
       </c>
       <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>41</v>
       </c>
@@ -14127,9 +13950,8 @@
         <v>0.08</v>
       </c>
       <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>41</v>
       </c>
@@ -14149,9 +13971,8 @@
         <v>0.06</v>
       </c>
       <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>41</v>
       </c>
@@ -14171,9 +13992,8 @@
         <v>-0.1</v>
       </c>
       <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>41</v>
       </c>
@@ -14193,9 +14013,8 @@
         <v>0.4</v>
       </c>
       <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>41</v>
       </c>
@@ -14215,9 +14034,8 @@
         <v>0.3</v>
       </c>
       <c r="G180" s="4"/>
-      <c r="H180" s="4"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>41</v>
       </c>
@@ -14237,9 +14055,8 @@
         <v>0.1</v>
       </c>
       <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>41</v>
       </c>
@@ -14259,9 +14076,8 @@
         <v>0.08</v>
       </c>
       <c r="G182" s="4"/>
-      <c r="H182" s="4"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>41</v>
       </c>
@@ -14281,9 +14097,8 @@
         <v>0.06</v>
       </c>
       <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>41</v>
       </c>
@@ -14303,9 +14118,8 @@
         <v>-0.1</v>
       </c>
       <c r="G184" s="4"/>
-      <c r="H184" s="4"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>41</v>
       </c>
@@ -14325,9 +14139,8 @@
         <v>0.4</v>
       </c>
       <c r="G185" s="4"/>
-      <c r="H185" s="4"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>41</v>
       </c>
@@ -14347,9 +14160,8 @@
         <v>0.3</v>
       </c>
       <c r="G186" s="4"/>
-      <c r="H186" s="4"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>41</v>
       </c>
@@ -14369,9 +14181,8 @@
         <v>0.1</v>
       </c>
       <c r="G187" s="4"/>
-      <c r="H187" s="4"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>41</v>
       </c>
@@ -14391,9 +14202,8 @@
         <v>0.08</v>
       </c>
       <c r="G188" s="4"/>
-      <c r="H188" s="4"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>41</v>
       </c>
@@ -14413,9 +14223,8 @@
         <v>0.06</v>
       </c>
       <c r="G189" s="4"/>
-      <c r="H189" s="4"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>41</v>
       </c>
@@ -14435,9 +14244,8 @@
         <v>-0.1</v>
       </c>
       <c r="G190" s="4"/>
-      <c r="H190" s="4"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>41</v>
       </c>
@@ -14457,9 +14265,8 @@
         <v>0.68</v>
       </c>
       <c r="G191" s="4"/>
-      <c r="H191" s="4"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>41</v>
       </c>
@@ -14479,9 +14286,8 @@
         <v>0.4</v>
       </c>
       <c r="G192" s="4"/>
-      <c r="H192" s="4"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>41</v>
       </c>
@@ -14501,9 +14307,8 @@
         <v>0.06</v>
       </c>
       <c r="G193" s="4"/>
-      <c r="H193" s="4"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>41</v>
       </c>
@@ -14523,9 +14328,8 @@
         <v>0.1</v>
       </c>
       <c r="G194" s="4"/>
-      <c r="H194" s="4"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>41</v>
       </c>
@@ -14545,9 +14349,8 @@
         <v>0.12</v>
       </c>
       <c r="G195" s="4"/>
-      <c r="H195" s="4"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>41</v>
       </c>
@@ -14567,9 +14370,8 @@
         <v>0.08</v>
       </c>
       <c r="G196" s="4"/>
-      <c r="H196" s="4"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>41</v>
       </c>
@@ -14589,9 +14391,8 @@
         <v>0.06</v>
       </c>
       <c r="G197" s="4"/>
-      <c r="H197" s="4"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>41</v>
       </c>
@@ -14611,9 +14412,8 @@
         <v>-0.1</v>
       </c>
       <c r="G198" s="4"/>
-      <c r="H198" s="4"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>41</v>
       </c>
@@ -14633,9 +14433,8 @@
         <v>0.4</v>
       </c>
       <c r="G199" s="4"/>
-      <c r="H199" s="4"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>41</v>
       </c>
@@ -14655,9 +14454,8 @@
         <v>0.3</v>
       </c>
       <c r="G200" s="4"/>
-      <c r="H200" s="4"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>41</v>
       </c>
@@ -14677,9 +14475,8 @@
         <v>0.1</v>
       </c>
       <c r="G201" s="4"/>
-      <c r="H201" s="4"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>41</v>
       </c>
@@ -14699,9 +14496,8 @@
         <v>0.08</v>
       </c>
       <c r="G202" s="4"/>
-      <c r="H202" s="4"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>41</v>
       </c>
@@ -14721,9 +14517,8 @@
         <v>0.06</v>
       </c>
       <c r="G203" s="4"/>
-      <c r="H203" s="4"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>41</v>
       </c>
@@ -14743,9 +14538,8 @@
         <v>-0.1</v>
       </c>
       <c r="G204" s="4"/>
-      <c r="H204" s="4"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>41</v>
       </c>
@@ -14765,9 +14559,8 @@
         <v>0.4</v>
       </c>
       <c r="G205" s="4"/>
-      <c r="H205" s="4"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>41</v>
       </c>
@@ -14787,9 +14580,8 @@
         <v>0.3</v>
       </c>
       <c r="G206" s="4"/>
-      <c r="H206" s="4"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>41</v>
       </c>
@@ -14809,9 +14601,8 @@
         <v>0.1</v>
       </c>
       <c r="G207" s="4"/>
-      <c r="H207" s="4"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>41</v>
       </c>
@@ -14831,9 +14622,8 @@
         <v>0.08</v>
       </c>
       <c r="G208" s="4"/>
-      <c r="H208" s="4"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>41</v>
       </c>
@@ -14853,9 +14643,8 @@
         <v>0.06</v>
       </c>
       <c r="G209" s="4"/>
-      <c r="H209" s="4"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>41</v>
       </c>
@@ -14875,9 +14664,8 @@
         <v>-0.1</v>
       </c>
       <c r="G210" s="4"/>
-      <c r="H210" s="4"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>41</v>
       </c>
@@ -14897,9 +14685,8 @@
         <v>0.4</v>
       </c>
       <c r="G211" s="4"/>
-      <c r="H211" s="4"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>41</v>
       </c>
@@ -14919,9 +14706,8 @@
         <v>0.3</v>
       </c>
       <c r="G212" s="4"/>
-      <c r="H212" s="4"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>41</v>
       </c>
@@ -14941,9 +14727,8 @@
         <v>0.1</v>
       </c>
       <c r="G213" s="4"/>
-      <c r="H213" s="4"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>41</v>
       </c>
@@ -14963,9 +14748,8 @@
         <v>0.08</v>
       </c>
       <c r="G214" s="4"/>
-      <c r="H214" s="4"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>41</v>
       </c>
@@ -14985,9 +14769,8 @@
         <v>0.06</v>
       </c>
       <c r="G215" s="4"/>
-      <c r="H215" s="4"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>41</v>
       </c>
@@ -15007,9 +14790,8 @@
         <v>-0.1</v>
       </c>
       <c r="G216" s="4"/>
-      <c r="H216" s="4"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>41</v>
       </c>
@@ -15029,9 +14811,8 @@
         <v>0.4</v>
       </c>
       <c r="G217" s="4"/>
-      <c r="H217" s="4"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>41</v>
       </c>
@@ -15051,9 +14832,8 @@
         <v>0.3</v>
       </c>
       <c r="G218" s="4"/>
-      <c r="H218" s="4"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>41</v>
       </c>
@@ -15073,9 +14853,8 @@
         <v>0.1</v>
       </c>
       <c r="G219" s="4"/>
-      <c r="H219" s="4"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>41</v>
       </c>
@@ -15095,9 +14874,8 @@
         <v>0.08</v>
       </c>
       <c r="G220" s="4"/>
-      <c r="H220" s="4"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>41</v>
       </c>
@@ -15117,9 +14895,8 @@
         <v>0.06</v>
       </c>
       <c r="G221" s="4"/>
-      <c r="H221" s="4"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>41</v>
       </c>
@@ -15139,9 +14916,8 @@
         <v>-0.1</v>
       </c>
       <c r="G222" s="4"/>
-      <c r="H222" s="4"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>41</v>
       </c>
@@ -15161,9 +14937,8 @@
         <v>0.46</v>
       </c>
       <c r="G223" s="4"/>
-      <c r="H223" s="4"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>41</v>
       </c>
@@ -15183,9 +14958,8 @@
         <v>0.3</v>
       </c>
       <c r="G224" s="4"/>
-      <c r="H224" s="4"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>41</v>
       </c>
@@ -15205,9 +14979,8 @@
         <v>0.06</v>
       </c>
       <c r="G225" s="4"/>
-      <c r="H225" s="4"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>41</v>
       </c>
@@ -15227,9 +15000,8 @@
         <v>0.1</v>
       </c>
       <c r="G226" s="4"/>
-      <c r="H226" s="4"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>41</v>
       </c>
@@ -15249,9 +15021,8 @@
         <v>0.08</v>
       </c>
       <c r="G227" s="4"/>
-      <c r="H227" s="4"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>41</v>
       </c>
@@ -15271,9 +15042,8 @@
         <v>0.06</v>
       </c>
       <c r="G228" s="4"/>
-      <c r="H228" s="4"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>41</v>
       </c>
@@ -15293,9 +15063,8 @@
         <v>-0.1</v>
       </c>
       <c r="G229" s="4"/>
-      <c r="H229" s="4"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>41</v>
       </c>
@@ -15315,9 +15084,8 @@
         <v>0.4</v>
       </c>
       <c r="G230" s="4"/>
-      <c r="H230" s="4"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>41</v>
       </c>
@@ -15337,9 +15105,8 @@
         <v>0.3</v>
       </c>
       <c r="G231" s="4"/>
-      <c r="H231" s="4"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>41</v>
       </c>
@@ -15359,9 +15126,8 @@
         <v>0.1</v>
       </c>
       <c r="G232" s="4"/>
-      <c r="H232" s="4"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>41</v>
       </c>
@@ -15381,9 +15147,8 @@
         <v>0.08</v>
       </c>
       <c r="G233" s="4"/>
-      <c r="H233" s="4"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>41</v>
       </c>
@@ -15403,9 +15168,8 @@
         <v>0.06</v>
       </c>
       <c r="G234" s="4"/>
-      <c r="H234" s="4"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>41</v>
       </c>
@@ -15425,9 +15189,8 @@
         <v>-0.1</v>
       </c>
       <c r="G235" s="4"/>
-      <c r="H235" s="4"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>41</v>
       </c>
@@ -15447,9 +15210,8 @@
         <v>0.4</v>
       </c>
       <c r="G236" s="4"/>
-      <c r="H236" s="4"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>41</v>
       </c>
@@ -15469,9 +15231,8 @@
         <v>0.3</v>
       </c>
       <c r="G237" s="4"/>
-      <c r="H237" s="4"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>41</v>
       </c>
@@ -15491,9 +15252,8 @@
         <v>0.1</v>
       </c>
       <c r="G238" s="4"/>
-      <c r="H238" s="4"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>41</v>
       </c>
@@ -15513,9 +15273,8 @@
         <v>0.08</v>
       </c>
       <c r="G239" s="4"/>
-      <c r="H239" s="4"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>41</v>
       </c>
@@ -15535,9 +15294,8 @@
         <v>0.06</v>
       </c>
       <c r="G240" s="4"/>
-      <c r="H240" s="4"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>41</v>
       </c>
@@ -15557,9 +15315,8 @@
         <v>-0.1</v>
       </c>
       <c r="G241" s="4"/>
-      <c r="H241" s="4"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>41</v>
       </c>
@@ -15579,9 +15336,8 @@
         <v>0.4</v>
       </c>
       <c r="G242" s="4"/>
-      <c r="H242" s="4"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>41</v>
       </c>
@@ -15601,9 +15357,8 @@
         <v>0.3</v>
       </c>
       <c r="G243" s="4"/>
-      <c r="H243" s="4"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>41</v>
       </c>
@@ -15623,9 +15378,8 @@
         <v>0.1</v>
       </c>
       <c r="G244" s="4"/>
-      <c r="H244" s="4"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>41</v>
       </c>
@@ -15645,9 +15399,8 @@
         <v>0.08</v>
       </c>
       <c r="G245" s="4"/>
-      <c r="H245" s="4"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>41</v>
       </c>
@@ -15667,9 +15420,8 @@
         <v>0.06</v>
       </c>
       <c r="G246" s="4"/>
-      <c r="H246" s="4"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>41</v>
       </c>
@@ -15689,9 +15441,8 @@
         <v>-0.1</v>
       </c>
       <c r="G247" s="4"/>
-      <c r="H247" s="4"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>41</v>
       </c>
@@ -15711,9 +15462,8 @@
         <v>0.4</v>
       </c>
       <c r="G248" s="4"/>
-      <c r="H248" s="4"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>41</v>
       </c>
@@ -15733,9 +15483,8 @@
         <v>0.3</v>
       </c>
       <c r="G249" s="4"/>
-      <c r="H249" s="4"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>41</v>
       </c>
@@ -15755,9 +15504,8 @@
         <v>0.1</v>
       </c>
       <c r="G250" s="4"/>
-      <c r="H250" s="4"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>41</v>
       </c>
@@ -15777,9 +15525,8 @@
         <v>0.08</v>
       </c>
       <c r="G251" s="4"/>
-      <c r="H251" s="4"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>41</v>
       </c>
@@ -15799,9 +15546,8 @@
         <v>0.06</v>
       </c>
       <c r="G252" s="4"/>
-      <c r="H252" s="4"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>41</v>
       </c>
@@ -15821,9 +15567,8 @@
         <v>-0.1</v>
       </c>
       <c r="G253" s="4"/>
-      <c r="H253" s="4"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>41</v>
       </c>
@@ -15843,9 +15588,8 @@
         <v>0.4</v>
       </c>
       <c r="G254" s="4"/>
-      <c r="H254" s="4"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>41</v>
       </c>
@@ -15865,9 +15609,8 @@
         <v>0.3</v>
       </c>
       <c r="G255" s="4"/>
-      <c r="H255" s="4"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>41</v>
       </c>
@@ -15887,9 +15630,8 @@
         <v>0.1</v>
       </c>
       <c r="G256" s="4"/>
-      <c r="H256" s="4"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>41</v>
       </c>
@@ -15909,9 +15651,8 @@
         <v>0.08</v>
       </c>
       <c r="G257" s="4"/>
-      <c r="H257" s="4"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>41</v>
       </c>
@@ -15931,9 +15672,8 @@
         <v>0.06</v>
       </c>
       <c r="G258" s="4"/>
-      <c r="H258" s="4"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>41</v>
       </c>
@@ -15953,9 +15693,8 @@
         <v>-0.1</v>
       </c>
       <c r="G259" s="4"/>
-      <c r="H259" s="4"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>41</v>
       </c>
@@ -15975,9 +15714,8 @@
         <v>0.4</v>
       </c>
       <c r="G260" s="4"/>
-      <c r="H260" s="4"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>41</v>
       </c>
@@ -15997,9 +15735,8 @@
         <v>0.3</v>
       </c>
       <c r="G261" s="4"/>
-      <c r="H261" s="4"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>41</v>
       </c>
@@ -16019,9 +15756,8 @@
         <v>0.1</v>
       </c>
       <c r="G262" s="4"/>
-      <c r="H262" s="4"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>41</v>
       </c>
@@ -16041,9 +15777,8 @@
         <v>0.08</v>
       </c>
       <c r="G263" s="4"/>
-      <c r="H263" s="4"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>41</v>
       </c>
@@ -16063,9 +15798,8 @@
         <v>0.06</v>
       </c>
       <c r="G264" s="4"/>
-      <c r="H264" s="4"/>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>41</v>
       </c>
@@ -16085,9 +15819,8 @@
         <v>-0.1</v>
       </c>
       <c r="G265" s="4"/>
-      <c r="H265" s="4"/>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>41</v>
       </c>
@@ -16107,9 +15840,8 @@
         <v>0.4</v>
       </c>
       <c r="G266" s="4"/>
-      <c r="H266" s="4"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>41</v>
       </c>
@@ -16129,9 +15861,8 @@
         <v>0.3</v>
       </c>
       <c r="G267" s="4"/>
-      <c r="H267" s="4"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>41</v>
       </c>
@@ -16151,9 +15882,8 @@
         <v>0.1</v>
       </c>
       <c r="G268" s="4"/>
-      <c r="H268" s="4"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>41</v>
       </c>
@@ -16173,9 +15903,8 @@
         <v>0.08</v>
       </c>
       <c r="G269" s="4"/>
-      <c r="H269" s="4"/>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>41</v>
       </c>
@@ -16195,9 +15924,8 @@
         <v>0.06</v>
       </c>
       <c r="G270" s="4"/>
-      <c r="H270" s="4"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>41</v>
       </c>
@@ -16217,9 +15945,8 @@
         <v>-0.1</v>
       </c>
       <c r="G271" s="4"/>
-      <c r="H271" s="4"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>41</v>
       </c>
@@ -16239,9 +15966,8 @@
         <v>0.64</v>
       </c>
       <c r="G272" s="4"/>
-      <c r="H272" s="4"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>41</v>
       </c>
@@ -16261,9 +15987,8 @@
         <v>0.3</v>
       </c>
       <c r="G273" s="4"/>
-      <c r="H273" s="4"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>41</v>
       </c>
@@ -16283,9 +16008,8 @@
         <v>0.12</v>
       </c>
       <c r="G274" s="4"/>
-      <c r="H274" s="4"/>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>41</v>
       </c>
@@ -16305,9 +16029,8 @@
         <v>0.1</v>
       </c>
       <c r="G275" s="4"/>
-      <c r="H275" s="4"/>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>41</v>
       </c>
@@ -16327,9 +16050,8 @@
         <v>0.12</v>
       </c>
       <c r="G276" s="4"/>
-      <c r="H276" s="4"/>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>41</v>
       </c>
@@ -16349,9 +16071,8 @@
         <v>0.08</v>
       </c>
       <c r="G277" s="4"/>
-      <c r="H277" s="4"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>41</v>
       </c>
@@ -16371,9 +16092,8 @@
         <v>0.06</v>
       </c>
       <c r="G278" s="4"/>
-      <c r="H278" s="4"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>41</v>
       </c>
@@ -16393,9 +16113,8 @@
         <v>-0.1</v>
       </c>
       <c r="G279" s="4"/>
-      <c r="H279" s="4"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>41</v>
       </c>
@@ -16415,9 +16134,8 @@
         <v>0.4</v>
       </c>
       <c r="G280" s="4"/>
-      <c r="H280" s="4"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>41</v>
       </c>
@@ -16437,9 +16155,8 @@
         <v>0.3</v>
       </c>
       <c r="G281" s="4"/>
-      <c r="H281" s="4"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>41</v>
       </c>
@@ -16459,9 +16176,8 @@
         <v>0.1</v>
       </c>
       <c r="G282" s="4"/>
-      <c r="H282" s="4"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>41</v>
       </c>
@@ -16481,9 +16197,8 @@
         <v>0.08</v>
       </c>
       <c r="G283" s="4"/>
-      <c r="H283" s="4"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>41</v>
       </c>
@@ -16503,9 +16218,8 @@
         <v>0.06</v>
       </c>
       <c r="G284" s="4"/>
-      <c r="H284" s="4"/>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>41</v>
       </c>
@@ -16525,9 +16239,8 @@
         <v>-0.1</v>
       </c>
       <c r="G285" s="4"/>
-      <c r="H285" s="4"/>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>41</v>
       </c>
@@ -16547,9 +16260,8 @@
         <v>0.4</v>
       </c>
       <c r="G286" s="4"/>
-      <c r="H286" s="4"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>41</v>
       </c>
@@ -16569,9 +16281,8 @@
         <v>0.3</v>
       </c>
       <c r="G287" s="4"/>
-      <c r="H287" s="4"/>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>41</v>
       </c>
@@ -16591,9 +16302,8 @@
         <v>0.1</v>
       </c>
       <c r="G288" s="4"/>
-      <c r="H288" s="4"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>41</v>
       </c>
@@ -16613,9 +16323,8 @@
         <v>0.08</v>
       </c>
       <c r="G289" s="4"/>
-      <c r="H289" s="4"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>41</v>
       </c>
@@ -16635,9 +16344,8 @@
         <v>0.06</v>
       </c>
       <c r="G290" s="4"/>
-      <c r="H290" s="4"/>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>41</v>
       </c>
@@ -16657,9 +16365,8 @@
         <v>-0.1</v>
       </c>
       <c r="G291" s="4"/>
-      <c r="H291" s="4"/>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>41</v>
       </c>
@@ -16679,9 +16386,8 @@
         <v>0.68</v>
       </c>
       <c r="G292" s="4"/>
-      <c r="H292" s="4"/>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>41</v>
       </c>
@@ -16701,9 +16407,8 @@
         <v>0.4</v>
       </c>
       <c r="G293" s="4"/>
-      <c r="H293" s="4"/>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>41</v>
       </c>
@@ -16723,9 +16428,8 @@
         <v>0.06</v>
       </c>
       <c r="G294" s="4"/>
-      <c r="H294" s="4"/>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>41</v>
       </c>
@@ -16745,9 +16449,8 @@
         <v>0.1</v>
       </c>
       <c r="G295" s="4"/>
-      <c r="H295" s="4"/>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>41</v>
       </c>
@@ -16767,9 +16470,8 @@
         <v>0.12</v>
       </c>
       <c r="G296" s="4"/>
-      <c r="H296" s="4"/>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>41</v>
       </c>
@@ -16789,9 +16491,8 @@
         <v>0.08</v>
       </c>
       <c r="G297" s="4"/>
-      <c r="H297" s="4"/>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>41</v>
       </c>
@@ -16811,9 +16512,8 @@
         <v>0.06</v>
       </c>
       <c r="G298" s="4"/>
-      <c r="H298" s="4"/>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>41</v>
       </c>
@@ -16833,9 +16533,8 @@
         <v>0.3</v>
       </c>
       <c r="G299" s="4"/>
-      <c r="H299" s="4"/>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>41</v>
       </c>
@@ -16855,9 +16554,8 @@
         <v>0.52</v>
       </c>
       <c r="G300" s="4"/>
-      <c r="H300" s="4"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>41</v>
       </c>
@@ -16877,9 +16575,8 @@
         <v>0.3</v>
       </c>
       <c r="G301" s="4"/>
-      <c r="H301" s="4"/>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>41</v>
       </c>
@@ -16899,9 +16596,8 @@
         <v>0.12</v>
       </c>
       <c r="G302" s="4"/>
-      <c r="H302" s="4"/>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>41</v>
       </c>
@@ -16921,9 +16617,8 @@
         <v>0.1</v>
       </c>
       <c r="G303" s="4"/>
-      <c r="H303" s="4"/>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>41</v>
       </c>
@@ -16943,9 +16638,8 @@
         <v>0.08</v>
       </c>
       <c r="G304" s="4"/>
-      <c r="H304" s="4"/>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>41</v>
       </c>
@@ -16965,9 +16659,8 @@
         <v>0.06</v>
       </c>
       <c r="G305" s="4"/>
-      <c r="H305" s="4"/>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>41</v>
       </c>
@@ -16987,9 +16680,8 @@
         <v>-0.1</v>
       </c>
       <c r="G306" s="4"/>
-      <c r="H306" s="4"/>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>41</v>
       </c>
@@ -17005,9 +16697,8 @@
         <v>1</v>
       </c>
       <c r="G307" s="4"/>
-      <c r="H307" s="4"/>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>41</v>
       </c>
@@ -17027,9 +16718,8 @@
         <v>0.82</v>
       </c>
       <c r="G308" s="4"/>
-      <c r="H308" s="4"/>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>41</v>
       </c>
@@ -17049,9 +16739,8 @@
         <v>0.1</v>
       </c>
       <c r="G309" s="4"/>
-      <c r="H309" s="4"/>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>41</v>
       </c>
@@ -17071,9 +16760,8 @@
         <v>0.12</v>
       </c>
       <c r="G310" s="4"/>
-      <c r="H310" s="4"/>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>41</v>
       </c>
@@ -17093,9 +16781,8 @@
         <v>0.6</v>
       </c>
       <c r="G311" s="4"/>
-      <c r="H311" s="4"/>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>41</v>
       </c>
@@ -17115,9 +16802,8 @@
         <v>0.08</v>
       </c>
       <c r="G312" s="4"/>
-      <c r="H312" s="4"/>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>41</v>
       </c>
@@ -17137,9 +16823,8 @@
         <v>0.06</v>
       </c>
       <c r="G313" s="4"/>
-      <c r="H313" s="4"/>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>41</v>
       </c>
@@ -17159,9 +16844,8 @@
         <v>0.1</v>
       </c>
       <c r="G314" s="4"/>
-      <c r="H314" s="4"/>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>41</v>
       </c>
@@ -17177,9 +16861,8 @@
         <v>1</v>
       </c>
       <c r="G315" s="4"/>
-      <c r="H315" s="4"/>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>41</v>
       </c>
@@ -17199,9 +16882,8 @@
         <v>0.4</v>
       </c>
       <c r="G316" s="4"/>
-      <c r="H316" s="4"/>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>41</v>
       </c>
@@ -17221,9 +16903,8 @@
         <v>0.3</v>
       </c>
       <c r="G317" s="4"/>
-      <c r="H317" s="4"/>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>41</v>
       </c>
@@ -17243,9 +16924,8 @@
         <v>0.1</v>
       </c>
       <c r="G318" s="4"/>
-      <c r="H318" s="4"/>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>41</v>
       </c>
@@ -17265,9 +16945,8 @@
         <v>0.08</v>
       </c>
       <c r="G319" s="4"/>
-      <c r="H319" s="4"/>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>41</v>
       </c>
@@ -17287,9 +16966,8 @@
         <v>0.06</v>
       </c>
       <c r="G320" s="4"/>
-      <c r="H320" s="4"/>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>41</v>
       </c>
@@ -17309,9 +16987,8 @@
         <v>-0.1</v>
       </c>
       <c r="G321" s="4"/>
-      <c r="H321" s="4"/>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>41</v>
       </c>
@@ -17331,9 +17008,8 @@
         <v>0.4</v>
       </c>
       <c r="G322" s="4"/>
-      <c r="H322" s="4"/>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>41</v>
       </c>
@@ -17353,9 +17029,8 @@
         <v>0.3</v>
       </c>
       <c r="G323" s="4"/>
-      <c r="H323" s="4"/>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>41</v>
       </c>
@@ -17375,9 +17050,8 @@
         <v>0.1</v>
       </c>
       <c r="G324" s="4"/>
-      <c r="H324" s="4"/>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>41</v>
       </c>
@@ -17397,9 +17071,8 @@
         <v>0.08</v>
       </c>
       <c r="G325" s="4"/>
-      <c r="H325" s="4"/>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>41</v>
       </c>
@@ -17419,9 +17092,8 @@
         <v>0.06</v>
       </c>
       <c r="G326" s="4"/>
-      <c r="H326" s="4"/>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>41</v>
       </c>
@@ -17441,9 +17113,8 @@
         <v>-0.1</v>
       </c>
       <c r="G327" s="4"/>
-      <c r="H327" s="4"/>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>41</v>
       </c>
@@ -17459,9 +17130,8 @@
         <v>1</v>
       </c>
       <c r="G328" s="4"/>
-      <c r="H328" s="4"/>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>41</v>
       </c>
@@ -17477,9 +17147,8 @@
         <v>1</v>
       </c>
       <c r="G329" s="4"/>
-      <c r="H329" s="4"/>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>42</v>
       </c>
@@ -17490,12 +17159,11 @@
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="F330" s="8"/>
-      <c r="G330" s="4"/>
-      <c r="H330" s="4" t="s">
+      <c r="G330" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>43</v>
       </c>
@@ -17506,12 +17174,11 @@
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" s="8"/>
-      <c r="G331" s="4"/>
-      <c r="H331" s="4" t="s">
+      <c r="G331" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44</v>
       </c>
@@ -17522,12 +17189,11 @@
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="8"/>
-      <c r="G332" s="4"/>
-      <c r="H332" s="4" t="s">
+      <c r="G332" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>45</v>
       </c>
@@ -17538,12 +17204,11 @@
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="8"/>
-      <c r="G333" s="4"/>
-      <c r="H333" s="4" t="s">
+      <c r="G333" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>46</v>
       </c>
@@ -17554,12 +17219,11 @@
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="8"/>
-      <c r="G334" s="4"/>
-      <c r="H334" s="4" t="s">
+      <c r="G334" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>47</v>
       </c>
@@ -17570,12 +17234,11 @@
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="8"/>
-      <c r="G335" s="4"/>
-      <c r="H335" s="4" t="s">
+      <c r="G335" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>48</v>
       </c>
@@ -17595,9 +17258,8 @@
         <v>1</v>
       </c>
       <c r="G336" s="4"/>
-      <c r="H336" s="4"/>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>48</v>
       </c>
@@ -17617,9 +17279,8 @@
         <v>0.2</v>
       </c>
       <c r="G337" s="4"/>
-      <c r="H337" s="4"/>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>48</v>
       </c>
@@ -17639,9 +17300,8 @@
         <v>0.2</v>
       </c>
       <c r="G338" s="4"/>
-      <c r="H338" s="4"/>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>48</v>
       </c>
@@ -17661,9 +17321,8 @@
         <v>0.6</v>
       </c>
       <c r="G339" s="4"/>
-      <c r="H339" s="4"/>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>48</v>
       </c>
@@ -17683,9 +17342,8 @@
         <v>0.04</v>
       </c>
       <c r="G340" s="4"/>
-      <c r="H340" s="4"/>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>48</v>
       </c>
@@ -17705,10 +17363,9 @@
         <v>0.12</v>
       </c>
       <c r="G341" s="4"/>
-      <c r="H341" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H336"/>
+  <autoFilter ref="A1:G336"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Paolo/Scripts/Factores/Info_2022.xlsx
+++ b/Paolo/Scripts/Factores/Info_2022.xlsx
@@ -9,19 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Nuevos" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="Consolidado" sheetId="5" r:id="rId2"/>
-    <sheet name="Graduación" sheetId="4" r:id="rId3"/>
-    <sheet name="Leyenda" sheetId="8" r:id="rId4"/>
-    <sheet name="Base" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Total" sheetId="11" r:id="rId3"/>
+    <sheet name="Revision" sheetId="10" r:id="rId4"/>
+    <sheet name="Eliminados" sheetId="9" r:id="rId5"/>
+    <sheet name="Graduación" sheetId="4" r:id="rId6"/>
+    <sheet name="Leyenda" sheetId="8" r:id="rId7"/>
+    <sheet name="Base" sheetId="2" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Base!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Base!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidado!$A$1:$T$159</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Graduación!$A$1:$G$336</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Graduación!$A$1:$G$336</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nuevos!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="310">
   <si>
     <t>Correlativo</t>
   </si>
@@ -1075,7 +1078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1129,6 +1132,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2038,9 +2044,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B159"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10467,9 +10473,555 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="23">
+        <f>COUNTA(A1:A48)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1">
+        <f>COUNTA(A1:A22)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1">
+        <f>COUNTA(A1:A26)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
@@ -17372,7 +17924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C5"/>
   <sheetViews>
@@ -17402,7 +17954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C93"/>
   <sheetViews>

--- a/Paolo/Scripts/Factores/Info_2022.xlsx
+++ b/Paolo/Scripts/Factores/Info_2022.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Nuevos" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="Consolidado" sheetId="5" r:id="rId2"/>
-    <sheet name="Total" sheetId="11" r:id="rId3"/>
-    <sheet name="Revision" sheetId="10" r:id="rId4"/>
-    <sheet name="Eliminados" sheetId="9" r:id="rId5"/>
+    <sheet name="Total" sheetId="11" state="hidden" r:id="rId3"/>
+    <sheet name="Revision" sheetId="10" state="hidden" r:id="rId4"/>
+    <sheet name="Eliminados" sheetId="9" state="hidden" r:id="rId5"/>
     <sheet name="Graduación" sheetId="4" r:id="rId6"/>
     <sheet name="Leyenda" sheetId="8" r:id="rId7"/>
     <sheet name="Base" sheetId="2" state="hidden" r:id="rId8"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Base!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidado!$A$1:$T$159</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Graduación!$A$1:$G$336</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Graduación!$A$1:$G$341</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nuevos!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -2044,7 +2044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B148" sqref="B148"/>
     </sheetView>
@@ -11021,9 +11021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G341"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12290,7 +12290,9 @@
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="8"/>
+      <c r="F64" s="8">
+        <v>1</v>
+      </c>
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -17917,7 +17919,7 @@
       <c r="G341" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G336"/>
+  <autoFilter ref="A1:G341"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
